--- a/aiurt-module-system/src/main/resources/templates/fixedAssetsCategoryError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/fixedAssetsCategoryError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="固定资产分类导入错误清单" sheetId="3" r:id="rId1"/>
@@ -19,174 +19,23 @@
     <t>固定资产分类导入错误清单</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写须知：
+    <t xml:space="preserve">填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
-字段说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.上级节点：必填字段。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果是一级的上级节点则为无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 2.二级节点的上级节点则为上级节点名称 3.三级节点的上级节点则为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上上级节点名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上级节点名称。例如一级节点名称为建筑，二级节点名称为桥梁，三级节点名称为拱桥，那么拱桥的上级节点填写为建筑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桥梁。桥梁的上级节点是建筑。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分类编码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>固定资产分类最多三级，一级分类编码为两位数，二级分类编码为一级级编码加三位数，三级分类编码为二级编码加四位数，同级的编码不允许重复。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+字段说明：
+1.上级节点：必填字段。1.如果是一级的上级节点则为无 2.二级节点的上级节点则为上级节点名称 3.三级节点的上级节点则为上上级节点名称/上级节点名称。例如一级节点名称为建筑，二级节点名称为桥梁，三级节点名称为拱桥，那么桥梁的上级节点是：建筑，拱桥的上级节点填写为：建筑/桥梁。
+2.分类编码：固定资产分类最多三级，编码不允许重复，且只能填写数字。
+一级分类编码为两位数；
+二级分类编码为一级编码加三位数，填写后三位数即可。例如二级分类编码为01001，01为一级的编码，导入时只输入001即可；
+三级分类编码为二级编码加四位数，填写后四位数即可；
 3.分类名称：必填字段
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分类状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：必填字段，分为启用、停用两种</t>
-    </r>
+分类名称限制如下：
+3.1 根节点之间不能重复；
+3.2 同根下枝干之间不能重复；
+3.3 不同根下枝干可重复；
+3.4 同根同枝同叶之间不能重复；
+3.5 同根不同枝叶子之间可重复；
+</t>
   </si>
   <si>
     <t>上级节点</t>
@@ -207,7 +56,7 @@
     <t>{{$fe:maplist t.pidName</t>
   </si>
   <si>
-    <t>t.categoryCode</t>
+    <t>t.splicingCode</t>
   </si>
   <si>
     <t>t.categoryName</t>
@@ -1285,7 +1134,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1306,7 +1155,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="186" customHeight="1" spans="1:5">
+    <row r="2" ht="244" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
